--- a/flows/SIVR_fund_flow_data.xlsx
+++ b/flows/SIVR_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3550"/>
+  <dimension ref="A1:B3566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35935,6 +35935,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3551">
+      <c r="A3551" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3552">
+      <c r="A3552" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3553">
+      <c r="A3553" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3554">
+      <c r="A3554" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3555">
+      <c r="A3555" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3556">
+      <c r="A3556" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3556" t="n">
+        <v>-8.5524</v>
+      </c>
+    </row>
+    <row r="3557">
+      <c r="A3557" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3558">
+      <c r="A3558" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3559">
+      <c r="A3559" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3560">
+      <c r="A3560" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3561">
+      <c r="A3561" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3562">
+      <c r="A3562" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3563">
+      <c r="A3563" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3564">
+      <c r="A3564" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3565">
+      <c r="A3565" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3566">
+      <c r="A3566" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3566" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
